--- a/assets/EIT FST.xlsx
+++ b/assets/EIT FST.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{792E2725-F843-47D3-A3A8-278B5D758A25}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{798E189A-7B7F-4C40-BF2B-15A78F3E2325}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -123,9 +124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,66 +411,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="I1" s="2">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2">
+        <v>3</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2">
+        <v>5</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2">
+        <v>6</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2">
+        <v>7</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2">
+        <v>8</v>
+      </c>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="3">
+        <v>6</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>6</v>
+      </c>
+      <c r="AJ1" s="3">
+        <v>7</v>
+      </c>
+      <c r="AK1" s="3">
+        <v>7</v>
+      </c>
+      <c r="AL1" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM1" s="3">
+        <v>8</v>
+      </c>
+      <c r="AN1" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>85</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>53</v>
+      </c>
+      <c r="J3">
+        <v>55</v>
+      </c>
+      <c r="K3">
+        <v>60</v>
+      </c>
+      <c r="L3">
+        <v>65</v>
+      </c>
+      <c r="M3">
+        <v>64</v>
+      </c>
+      <c r="N3">
+        <v>68</v>
+      </c>
+      <c r="O3">
+        <v>70</v>
+      </c>
+      <c r="P3">
+        <v>72</v>
+      </c>
+      <c r="Q3">
+        <v>87</v>
+      </c>
+      <c r="R3">
+        <v>88</v>
+      </c>
+      <c r="S3">
+        <v>137</v>
+      </c>
+      <c r="T3">
+        <v>140</v>
+      </c>
+      <c r="U3">
+        <v>67</v>
+      </c>
+      <c r="V3">
+        <v>69</v>
+      </c>
+      <c r="W3">
+        <v>84</v>
+      </c>
+      <c r="X3">
+        <v>85</v>
+      </c>
+      <c r="Y3">
+        <v>47</v>
+      </c>
+      <c r="Z3">
+        <v>49</v>
+      </c>
+      <c r="AA3">
+        <v>52</v>
+      </c>
+      <c r="AB3">
+        <v>53</v>
+      </c>
+      <c r="AC3">
+        <v>50</v>
+      </c>
+      <c r="AD3">
+        <v>51</v>
+      </c>
+      <c r="AE3">
+        <v>65</v>
+      </c>
+      <c r="AF3">
+        <v>72</v>
+      </c>
+      <c r="AG3">
+        <v>109</v>
+      </c>
+      <c r="AH3">
+        <v>110</v>
+      </c>
+      <c r="AI3">
+        <v>77</v>
+      </c>
+      <c r="AJ3">
+        <v>82</v>
+      </c>
+      <c r="AK3">
+        <v>42</v>
+      </c>
+      <c r="AL3">
+        <v>43</v>
+      </c>
+      <c r="AM3">
+        <v>21</v>
+      </c>
+      <c r="AN3">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0A25F2-2A63-40EA-9F0D-BEB092513D6F}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>23</v>
+      </c>
+      <c r="C1">
+        <v>90</v>
+      </c>
+      <c r="D1">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>85</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -477,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -485,16 +841,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -509,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -517,16 +873,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>23</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -541,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -549,19 +905,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D5">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -573,46 +929,13 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>33</v>
-      </c>
-      <c r="C6">
-        <v>130</v>
-      </c>
-      <c r="D6">
-        <v>150</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>95</v>
-      </c>
-      <c r="J6">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/EIT FST.xlsx
+++ b/assets/EIT FST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{798E189A-7B7F-4C40-BF2B-15A78F3E2325}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{905B26C4-29D7-44A2-81F0-D9D0E8AD5545}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -81,6 +81,21 @@
   </si>
   <si>
     <t>no_electrodes</t>
+  </si>
+  <si>
+    <t>mega</t>
+  </si>
+  <si>
+    <t>forearm</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Ishwarya</t>
   </si>
 </sst>
 </file>
@@ -127,10 +142,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,7 +438,7 @@
     <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I1" s="2">
         <v>1</v>
       </c>
@@ -641,10 +656,10 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>85</v>
@@ -747,6 +762,76 @@
       </c>
       <c r="AN3">
         <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>75</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>57</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>0.95</v>
+      </c>
+      <c r="J5">
+        <v>0.97</v>
+      </c>
+      <c r="K5">
+        <v>0.92</v>
+      </c>
+      <c r="L5">
+        <v>0.94</v>
+      </c>
+      <c r="M5">
+        <v>0.85</v>
+      </c>
+      <c r="N5">
+        <v>0.94</v>
       </c>
     </row>
   </sheetData>

--- a/assets/EIT FST.xlsx
+++ b/assets/EIT FST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{905B26C4-29D7-44A2-81F0-D9D0E8AD5545}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EBB08F76-84B0-4213-9BEF-83B1BB2F99A9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -83,19 +83,25 @@
     <t>no_electrodes</t>
   </si>
   <si>
-    <t>mega</t>
-  </si>
-  <si>
     <t>forearm</t>
   </si>
   <si>
-    <t>Kumar</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
     <t>Ishwarya</t>
+  </si>
+  <si>
+    <t>Vinod</t>
+  </si>
+  <si>
+    <t>1.1m</t>
+  </si>
+  <si>
+    <t>1.8m</t>
+  </si>
+  <si>
+    <t>0.47m</t>
   </si>
 </sst>
 </file>
@@ -139,13 +145,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN5"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,84 +446,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="I1" s="2">
+      <c r="I1" s="3">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3">
         <v>3</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3">
         <v>4</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3">
         <v>5</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2">
+      <c r="R1" s="3"/>
+      <c r="S1" s="3">
         <v>6</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2">
+      <c r="T1" s="3"/>
+      <c r="U1" s="3">
         <v>7</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2">
+      <c r="V1" s="3"/>
+      <c r="W1" s="3">
         <v>8</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="3">
+      <c r="X1" s="3"/>
+      <c r="Y1" s="2">
         <v>1</v>
       </c>
-      <c r="Z1" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA1" s="3">
-        <v>2</v>
-      </c>
-      <c r="AB1" s="3">
+      <c r="Z1" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="2">
         <v>3</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="2">
         <v>3</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="2">
         <v>4</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="2">
         <v>4</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="2">
         <v>5</v>
       </c>
-      <c r="AG1" s="3">
+      <c r="AG1" s="2">
         <v>5</v>
       </c>
-      <c r="AH1" s="3">
+      <c r="AH1" s="2">
         <v>6</v>
       </c>
-      <c r="AI1" s="3">
+      <c r="AI1" s="2">
         <v>6</v>
       </c>
-      <c r="AJ1" s="3">
+      <c r="AJ1" s="2">
         <v>7</v>
       </c>
-      <c r="AK1" s="3">
+      <c r="AK1" s="2">
         <v>7</v>
       </c>
-      <c r="AL1" s="3">
+      <c r="AL1" s="2">
         <v>8</v>
       </c>
-      <c r="AM1" s="3">
+      <c r="AM1" s="2">
         <v>8</v>
       </c>
-      <c r="AN1" s="3">
+      <c r="AN1" s="2">
         <v>1</v>
       </c>
     </row>
@@ -656,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -769,69 +776,409 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>8</v>
+      </c>
+      <c r="I4">
+        <v>0.95</v>
+      </c>
+      <c r="J4">
+        <v>0.97</v>
+      </c>
+      <c r="K4">
+        <v>0.92</v>
+      </c>
+      <c r="L4">
+        <v>0.94</v>
+      </c>
+      <c r="M4">
+        <v>0.85</v>
+      </c>
+      <c r="N4">
+        <v>0.94</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H5">
         <v>8</v>
       </c>
       <c r="I5">
-        <v>0.95</v>
+        <v>117</v>
       </c>
       <c r="J5">
-        <v>0.97</v>
+        <v>122</v>
       </c>
       <c r="K5">
-        <v>0.92</v>
+        <v>116</v>
       </c>
       <c r="L5">
-        <v>0.94</v>
+        <v>138</v>
       </c>
       <c r="M5">
-        <v>0.85</v>
+        <v>95</v>
       </c>
       <c r="N5">
-        <v>0.94</v>
+        <v>103</v>
+      </c>
+      <c r="O5">
+        <v>97</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>102</v>
+      </c>
+      <c r="R5">
+        <v>104</v>
+      </c>
+      <c r="S5">
+        <v>106</v>
+      </c>
+      <c r="T5">
+        <v>109</v>
+      </c>
+      <c r="U5">
+        <v>108</v>
+      </c>
+      <c r="V5">
+        <v>113</v>
+      </c>
+      <c r="W5">
+        <v>140</v>
+      </c>
+      <c r="X5">
+        <v>160</v>
+      </c>
+      <c r="Y5">
+        <v>107</v>
+      </c>
+      <c r="Z5">
+        <v>111</v>
+      </c>
+      <c r="AA5">
+        <v>16</v>
+      </c>
+      <c r="AB5">
+        <v>17</v>
+      </c>
+      <c r="AC5">
+        <v>38</v>
+      </c>
+      <c r="AD5">
+        <v>42</v>
+      </c>
+      <c r="AE5">
+        <v>8</v>
+      </c>
+      <c r="AF5">
+        <v>9</v>
+      </c>
+      <c r="AG5">
+        <v>4.5</v>
+      </c>
+      <c r="AH5">
+        <v>4.5</v>
+      </c>
+      <c r="AI5">
+        <v>3.5</v>
+      </c>
+      <c r="AJ5">
+        <v>3.5</v>
+      </c>
+      <c r="AK5">
+        <v>0.8</v>
+      </c>
+      <c r="AL5">
+        <v>0.8</v>
+      </c>
+      <c r="AM5">
+        <v>93</v>
+      </c>
+      <c r="AN5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>79</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>1.8</v>
+      </c>
+      <c r="J6">
+        <v>2.8</v>
+      </c>
+      <c r="K6">
+        <v>9.6</v>
+      </c>
+      <c r="L6">
+        <v>9.6</v>
+      </c>
+      <c r="M6">
+        <v>7.5</v>
+      </c>
+      <c r="N6">
+        <v>7.8</v>
+      </c>
+      <c r="O6">
+        <v>6.5</v>
+      </c>
+      <c r="P6">
+        <v>6.5</v>
+      </c>
+      <c r="Q6">
+        <v>3.7</v>
+      </c>
+      <c r="R6">
+        <v>3.7</v>
+      </c>
+      <c r="S6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" t="s">
+        <v>25</v>
+      </c>
+      <c r="V6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6">
+        <v>7.5</v>
+      </c>
+      <c r="X6">
+        <v>7.5</v>
+      </c>
+      <c r="Y6">
+        <v>19.5</v>
+      </c>
+      <c r="Z6">
+        <v>20</v>
+      </c>
+      <c r="AA6">
+        <v>2.6</v>
+      </c>
+      <c r="AB6">
+        <v>2.6</v>
+      </c>
+      <c r="AC6">
+        <v>4.5</v>
+      </c>
+      <c r="AD6">
+        <v>4.5</v>
+      </c>
+      <c r="AE6">
+        <v>1.9</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>1.6</v>
+      </c>
+      <c r="AH6">
+        <v>1.6</v>
+      </c>
+      <c r="AI6">
+        <v>9.5</v>
+      </c>
+      <c r="AJ6">
+        <v>9.5</v>
+      </c>
+      <c r="AK6">
+        <v>5.3</v>
+      </c>
+      <c r="AL6">
+        <v>5.3</v>
+      </c>
+      <c r="AM6">
+        <v>3.3</v>
+      </c>
+      <c r="AN6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>0.05</v>
+      </c>
+      <c r="J7">
+        <v>0.05</v>
+      </c>
+      <c r="K7">
+        <v>4.5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M7" s="4">
+        <v>10.52</v>
+      </c>
+      <c r="N7" s="4">
+        <v>10.52</v>
+      </c>
+      <c r="O7" s="4">
+        <v>5.32</v>
+      </c>
+      <c r="P7" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>7</v>
+      </c>
+      <c r="R7" s="4">
+        <v>8</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="W7">
+        <v>3.8</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>15.5</v>
+      </c>
+      <c r="AB7">
+        <v>16.2</v>
+      </c>
+      <c r="AC7">
+        <v>0.9</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG7">
+        <v>1.9</v>
+      </c>
+      <c r="AH7">
+        <v>1.9</v>
+      </c>
+      <c r="AI7">
+        <v>0.5</v>
+      </c>
+      <c r="AJ7">
+        <v>0.5</v>
+      </c>
+      <c r="AK7">
+        <v>0.65</v>
+      </c>
+      <c r="AL7">
+        <v>0.65</v>
+      </c>
+      <c r="AM7">
+        <v>6.5</v>
+      </c>
+      <c r="AN7">
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>

--- a/assets/EIT FST.xlsx
+++ b/assets/EIT FST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EBB08F76-84B0-4213-9BEF-83B1BB2F99A9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B135B16F-E8B4-45DA-90C6-20DD40D03FED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="28">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>0.47m</t>
+  </si>
+  <si>
+    <t>Mayuresh</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,16 +776,16 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -791,36 +794,114 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H4">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>0.95</v>
+        <v>117</v>
       </c>
       <c r="J4">
-        <v>0.97</v>
+        <v>122</v>
       </c>
       <c r="K4">
-        <v>0.92</v>
+        <v>116</v>
       </c>
       <c r="L4">
-        <v>0.94</v>
+        <v>138</v>
       </c>
       <c r="M4">
-        <v>0.85</v>
+        <v>95</v>
       </c>
       <c r="N4">
-        <v>0.94</v>
+        <v>103</v>
+      </c>
+      <c r="O4">
+        <v>97</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <v>102</v>
+      </c>
+      <c r="R4">
+        <v>104</v>
+      </c>
+      <c r="S4">
+        <v>106</v>
+      </c>
+      <c r="T4">
+        <v>109</v>
+      </c>
+      <c r="U4">
+        <v>108</v>
+      </c>
+      <c r="V4">
+        <v>113</v>
+      </c>
+      <c r="W4">
+        <v>140</v>
+      </c>
+      <c r="X4">
+        <v>160</v>
+      </c>
+      <c r="Y4">
+        <v>107</v>
+      </c>
+      <c r="Z4">
+        <v>111</v>
+      </c>
+      <c r="AA4">
+        <v>16</v>
+      </c>
+      <c r="AB4">
+        <v>17</v>
+      </c>
+      <c r="AC4">
+        <v>38</v>
+      </c>
+      <c r="AD4">
+        <v>42</v>
+      </c>
+      <c r="AE4">
+        <v>8</v>
+      </c>
+      <c r="AF4">
+        <v>9</v>
+      </c>
+      <c r="AG4">
+        <v>4.5</v>
+      </c>
+      <c r="AH4">
+        <v>4.5</v>
+      </c>
+      <c r="AI4">
+        <v>3.5</v>
+      </c>
+      <c r="AJ4">
+        <v>3.5</v>
+      </c>
+      <c r="AK4">
+        <v>0.8</v>
+      </c>
+      <c r="AL4">
+        <v>0.8</v>
+      </c>
+      <c r="AM4">
+        <v>93</v>
+      </c>
+      <c r="AN4">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -835,114 +916,114 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H5">
         <v>8</v>
       </c>
       <c r="I5">
-        <v>117</v>
+        <v>1.8</v>
       </c>
       <c r="J5">
-        <v>122</v>
+        <v>2.8</v>
       </c>
       <c r="K5">
-        <v>116</v>
+        <v>9.6</v>
       </c>
       <c r="L5">
-        <v>138</v>
+        <v>9.6</v>
       </c>
       <c r="M5">
-        <v>95</v>
+        <v>7.5</v>
       </c>
       <c r="N5">
-        <v>103</v>
+        <v>7.8</v>
       </c>
       <c r="O5">
-        <v>97</v>
+        <v>6.5</v>
       </c>
       <c r="P5">
-        <v>100</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
-        <v>102</v>
+        <v>3.7</v>
       </c>
       <c r="R5">
-        <v>104</v>
-      </c>
-      <c r="S5">
-        <v>106</v>
-      </c>
-      <c r="T5">
-        <v>109</v>
-      </c>
-      <c r="U5">
-        <v>108</v>
-      </c>
-      <c r="V5">
-        <v>113</v>
+        <v>3.7</v>
+      </c>
+      <c r="S5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" t="s">
+        <v>25</v>
       </c>
       <c r="W5">
-        <v>140</v>
+        <v>7.5</v>
       </c>
       <c r="X5">
-        <v>160</v>
+        <v>7.5</v>
       </c>
       <c r="Y5">
-        <v>107</v>
+        <v>19.5</v>
       </c>
       <c r="Z5">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="AA5">
-        <v>16</v>
+        <v>2.6</v>
       </c>
       <c r="AB5">
-        <v>17</v>
+        <v>2.6</v>
       </c>
       <c r="AC5">
-        <v>38</v>
+        <v>4.5</v>
       </c>
       <c r="AD5">
-        <v>42</v>
+        <v>4.5</v>
       </c>
       <c r="AE5">
-        <v>8</v>
+        <v>1.9</v>
       </c>
       <c r="AF5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AG5">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="AH5">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="AI5">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="AJ5">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK5">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="AL5">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="AM5">
-        <v>93</v>
+        <v>3.3</v>
       </c>
       <c r="AN5">
-        <v>96</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
         <v>23</v>
-      </c>
-      <c r="B6">
-        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -957,114 +1038,114 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H6">
         <v>8</v>
       </c>
       <c r="I6">
-        <v>1.8</v>
+        <v>0.05</v>
       </c>
       <c r="J6">
-        <v>2.8</v>
+        <v>0.05</v>
       </c>
       <c r="K6">
-        <v>9.6</v>
-      </c>
-      <c r="L6">
-        <v>9.6</v>
-      </c>
-      <c r="M6">
-        <v>7.5</v>
-      </c>
-      <c r="N6">
-        <v>7.8</v>
-      </c>
-      <c r="O6">
+        <v>4.5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M6" s="4">
+        <v>10.52</v>
+      </c>
+      <c r="N6" s="4">
+        <v>10.52</v>
+      </c>
+      <c r="O6" s="4">
+        <v>5.32</v>
+      </c>
+      <c r="P6" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>7</v>
+      </c>
+      <c r="R6" s="4">
+        <v>8</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="W6">
+        <v>3.8</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>15.5</v>
+      </c>
+      <c r="AB6">
+        <v>16.2</v>
+      </c>
+      <c r="AC6">
+        <v>0.9</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG6">
+        <v>1.9</v>
+      </c>
+      <c r="AH6">
+        <v>1.9</v>
+      </c>
+      <c r="AI6">
+        <v>0.5</v>
+      </c>
+      <c r="AJ6">
+        <v>0.5</v>
+      </c>
+      <c r="AK6">
+        <v>0.65</v>
+      </c>
+      <c r="AL6">
+        <v>0.65</v>
+      </c>
+      <c r="AM6">
         <v>6.5</v>
       </c>
-      <c r="P6">
-        <v>6.5</v>
-      </c>
-      <c r="Q6">
-        <v>3.7</v>
-      </c>
-      <c r="R6">
-        <v>3.7</v>
-      </c>
-      <c r="S6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" t="s">
-        <v>24</v>
-      </c>
-      <c r="U6" t="s">
-        <v>25</v>
-      </c>
-      <c r="V6" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6">
-        <v>7.5</v>
-      </c>
-      <c r="X6">
-        <v>7.5</v>
-      </c>
-      <c r="Y6">
-        <v>19.5</v>
-      </c>
-      <c r="Z6">
-        <v>20</v>
-      </c>
-      <c r="AA6">
-        <v>2.6</v>
-      </c>
-      <c r="AB6">
-        <v>2.6</v>
-      </c>
-      <c r="AC6">
-        <v>4.5</v>
-      </c>
-      <c r="AD6">
-        <v>4.5</v>
-      </c>
-      <c r="AE6">
-        <v>1.9</v>
-      </c>
-      <c r="AF6">
-        <v>2</v>
-      </c>
-      <c r="AG6">
-        <v>1.6</v>
-      </c>
-      <c r="AH6">
-        <v>1.6</v>
-      </c>
-      <c r="AI6">
-        <v>9.5</v>
-      </c>
-      <c r="AJ6">
-        <v>9.5</v>
-      </c>
-      <c r="AK6">
-        <v>5.3</v>
-      </c>
-      <c r="AL6">
-        <v>5.3</v>
-      </c>
-      <c r="AM6">
-        <v>3.3</v>
-      </c>
       <c r="AN6">
-        <v>3.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -1079,106 +1160,150 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H7">
         <v>8</v>
       </c>
       <c r="I7">
-        <v>0.05</v>
+        <v>19</v>
       </c>
       <c r="J7">
-        <v>0.05</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>4.5</v>
-      </c>
-      <c r="L7" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="M7" s="4">
-        <v>10.52</v>
-      </c>
-      <c r="N7" s="4">
-        <v>10.52</v>
-      </c>
-      <c r="O7" s="4">
-        <v>5.32</v>
-      </c>
-      <c r="P7" s="4">
-        <v>5.9</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>7</v>
-      </c>
-      <c r="R7" s="4">
+        <v>62</v>
+      </c>
+      <c r="L7">
+        <v>63</v>
+      </c>
+      <c r="M7">
+        <v>40</v>
+      </c>
+      <c r="N7">
+        <v>41</v>
+      </c>
+      <c r="O7">
+        <v>33</v>
+      </c>
+      <c r="P7">
+        <v>34</v>
+      </c>
+      <c r="Q7">
+        <v>33</v>
+      </c>
+      <c r="R7">
+        <v>34</v>
+      </c>
+      <c r="S7">
+        <v>32</v>
+      </c>
+      <c r="T7">
+        <v>33</v>
+      </c>
+      <c r="U7">
+        <v>20</v>
+      </c>
+      <c r="V7">
+        <v>20</v>
+      </c>
+      <c r="W7">
+        <v>55</v>
+      </c>
+      <c r="X7">
+        <v>57</v>
+      </c>
+      <c r="Y7">
+        <v>58</v>
+      </c>
+      <c r="Z7">
+        <v>59</v>
+      </c>
+      <c r="AA7">
+        <v>85</v>
+      </c>
+      <c r="AB7">
+        <v>86</v>
+      </c>
+      <c r="AC7">
+        <v>38</v>
+      </c>
+      <c r="AD7">
+        <v>39</v>
+      </c>
+      <c r="AE7">
+        <v>67</v>
+      </c>
+      <c r="AF7">
+        <v>68</v>
+      </c>
+      <c r="AG7">
+        <v>24</v>
+      </c>
+      <c r="AH7">
+        <v>25</v>
+      </c>
+      <c r="AI7">
+        <v>84</v>
+      </c>
+      <c r="AJ7">
+        <v>85</v>
+      </c>
+      <c r="AK7">
+        <v>80</v>
+      </c>
+      <c r="AL7">
+        <v>90</v>
+      </c>
+      <c r="AM7">
+        <v>80</v>
+      </c>
+      <c r="AN7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>57</v>
+      </c>
+      <c r="H8">
         <v>8</v>
       </c>
-      <c r="S7" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="T7" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="U7" s="4">
-        <v>1.49</v>
-      </c>
-      <c r="V7" s="4">
-        <v>1.49</v>
-      </c>
-      <c r="W7">
-        <v>3.8</v>
-      </c>
-      <c r="X7">
-        <v>4</v>
-      </c>
-      <c r="Y7">
-        <v>2</v>
-      </c>
-      <c r="Z7">
-        <v>2</v>
-      </c>
-      <c r="AA7">
-        <v>15.5</v>
-      </c>
-      <c r="AB7">
-        <v>16.2</v>
-      </c>
-      <c r="AC7">
-        <v>0.9</v>
-      </c>
-      <c r="AD7">
-        <v>1</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG7">
-        <v>1.9</v>
-      </c>
-      <c r="AH7">
-        <v>1.9</v>
-      </c>
-      <c r="AI7">
-        <v>0.5</v>
-      </c>
-      <c r="AJ7">
-        <v>0.5</v>
-      </c>
-      <c r="AK7">
-        <v>0.65</v>
-      </c>
-      <c r="AL7">
-        <v>0.65</v>
-      </c>
-      <c r="AM7">
-        <v>6.5</v>
-      </c>
-      <c r="AN7">
-        <v>6.8</v>
+      <c r="I8">
+        <v>0.95</v>
+      </c>
+      <c r="J8">
+        <v>0.97</v>
+      </c>
+      <c r="K8">
+        <v>0.92</v>
+      </c>
+      <c r="L8">
+        <v>0.94</v>
+      </c>
+      <c r="M8">
+        <v>0.85</v>
+      </c>
+      <c r="N8">
+        <v>0.94</v>
       </c>
     </row>
   </sheetData>

--- a/assets/EIT FST.xlsx
+++ b/assets/EIT FST.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B135B16F-E8B4-45DA-90C6-20DD40D03FED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BB00A1B0-FF95-427F-B587-171F06FAA31D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="actual" sheetId="1" r:id="rId1"/>
+    <sheet name="old" sheetId="2" r:id="rId2"/>
+    <sheet name="clean" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="33">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -105,6 +106,21 @@
   </si>
   <si>
     <t>Mayuresh</t>
+  </si>
+  <si>
+    <t>0.42m</t>
+  </si>
+  <si>
+    <t>0.43m</t>
+  </si>
+  <si>
+    <t>0.36m</t>
+  </si>
+  <si>
+    <t>0.35m</t>
+  </si>
+  <si>
+    <t>Kiran</t>
   </si>
 </sst>
 </file>
@@ -436,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN8"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1304,6 +1320,128 @@
       </c>
       <c r="N8">
         <v>0.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>34</v>
+      </c>
+      <c r="L9">
+        <v>34.5</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>15</v>
+      </c>
+      <c r="P9">
+        <v>17</v>
+      </c>
+      <c r="Q9">
+        <v>30</v>
+      </c>
+      <c r="R9">
+        <v>32</v>
+      </c>
+      <c r="S9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y9">
+        <v>6.5</v>
+      </c>
+      <c r="Z9">
+        <v>6.5</v>
+      </c>
+      <c r="AA9">
+        <v>6.5</v>
+      </c>
+      <c r="AB9">
+        <v>6.5</v>
+      </c>
+      <c r="AC9">
+        <v>75</v>
+      </c>
+      <c r="AD9">
+        <v>76</v>
+      </c>
+      <c r="AE9">
+        <v>80</v>
+      </c>
+      <c r="AF9">
+        <v>83</v>
+      </c>
+      <c r="AG9">
+        <v>9</v>
+      </c>
+      <c r="AH9">
+        <v>10</v>
+      </c>
+      <c r="AI9">
+        <v>1.2</v>
+      </c>
+      <c r="AJ9">
+        <v>1.3</v>
+      </c>
+      <c r="AK9">
+        <v>0.2</v>
+      </c>
+      <c r="AL9">
+        <v>0.2</v>
+      </c>
+      <c r="AM9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AN9">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1495,4 +1633,977 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F16F3D8-BA9C-4593-B7BA-2AD67C9202CC}">
+  <dimension ref="A1:AN8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="3">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3">
+        <v>4</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3">
+        <v>5</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3">
+        <v>6</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3">
+        <v>7</v>
+      </c>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3">
+        <v>8</v>
+      </c>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>6</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>6</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>7</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>7</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>8</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>8</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>85</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>0.05</v>
+      </c>
+      <c r="J3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K3">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>18</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>9</v>
+      </c>
+      <c r="O3">
+        <v>70</v>
+      </c>
+      <c r="P3">
+        <v>72</v>
+      </c>
+      <c r="Q3">
+        <v>87</v>
+      </c>
+      <c r="R3">
+        <v>88</v>
+      </c>
+      <c r="S3">
+        <v>137</v>
+      </c>
+      <c r="T3">
+        <v>140</v>
+      </c>
+      <c r="U3">
+        <v>67</v>
+      </c>
+      <c r="V3">
+        <v>69</v>
+      </c>
+      <c r="W3">
+        <v>84</v>
+      </c>
+      <c r="X3">
+        <v>85</v>
+      </c>
+      <c r="Y3">
+        <v>47</v>
+      </c>
+      <c r="Z3">
+        <v>49</v>
+      </c>
+      <c r="AA3">
+        <v>52</v>
+      </c>
+      <c r="AB3">
+        <v>53</v>
+      </c>
+      <c r="AC3">
+        <v>50</v>
+      </c>
+      <c r="AD3">
+        <v>51</v>
+      </c>
+      <c r="AE3">
+        <v>65</v>
+      </c>
+      <c r="AF3">
+        <v>72</v>
+      </c>
+      <c r="AG3">
+        <v>109</v>
+      </c>
+      <c r="AH3">
+        <v>110</v>
+      </c>
+      <c r="AI3">
+        <v>77</v>
+      </c>
+      <c r="AJ3">
+        <v>82</v>
+      </c>
+      <c r="AK3">
+        <v>42</v>
+      </c>
+      <c r="AL3">
+        <v>43</v>
+      </c>
+      <c r="AM3">
+        <v>21</v>
+      </c>
+      <c r="AN3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>72</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>117</v>
+      </c>
+      <c r="J4">
+        <v>122</v>
+      </c>
+      <c r="K4">
+        <v>116</v>
+      </c>
+      <c r="L4">
+        <v>138</v>
+      </c>
+      <c r="M4">
+        <v>95</v>
+      </c>
+      <c r="N4">
+        <v>103</v>
+      </c>
+      <c r="O4">
+        <v>97</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <v>102</v>
+      </c>
+      <c r="R4">
+        <v>104</v>
+      </c>
+      <c r="S4">
+        <v>106</v>
+      </c>
+      <c r="T4">
+        <v>109</v>
+      </c>
+      <c r="U4">
+        <v>108</v>
+      </c>
+      <c r="V4">
+        <v>113</v>
+      </c>
+      <c r="W4">
+        <v>140</v>
+      </c>
+      <c r="X4">
+        <v>160</v>
+      </c>
+      <c r="Y4">
+        <v>107</v>
+      </c>
+      <c r="Z4">
+        <v>111</v>
+      </c>
+      <c r="AA4">
+        <v>16</v>
+      </c>
+      <c r="AB4">
+        <v>17</v>
+      </c>
+      <c r="AC4">
+        <v>38</v>
+      </c>
+      <c r="AD4">
+        <v>42</v>
+      </c>
+      <c r="AE4">
+        <v>8</v>
+      </c>
+      <c r="AF4">
+        <v>9</v>
+      </c>
+      <c r="AG4">
+        <v>4.5</v>
+      </c>
+      <c r="AH4">
+        <v>4.5</v>
+      </c>
+      <c r="AI4">
+        <v>3.5</v>
+      </c>
+      <c r="AJ4">
+        <v>3.5</v>
+      </c>
+      <c r="AK4">
+        <v>0.8</v>
+      </c>
+      <c r="AL4">
+        <v>0.8</v>
+      </c>
+      <c r="AM4">
+        <v>93</v>
+      </c>
+      <c r="AN4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>79</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>1.8</v>
+      </c>
+      <c r="J5">
+        <v>2.8</v>
+      </c>
+      <c r="K5">
+        <v>9.6</v>
+      </c>
+      <c r="L5">
+        <v>9.6</v>
+      </c>
+      <c r="M5">
+        <v>7.5</v>
+      </c>
+      <c r="N5">
+        <v>7.8</v>
+      </c>
+      <c r="O5">
+        <v>6.5</v>
+      </c>
+      <c r="P5">
+        <v>6.5</v>
+      </c>
+      <c r="Q5">
+        <v>3.7</v>
+      </c>
+      <c r="R5">
+        <v>3.7</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>6</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>7.5</v>
+      </c>
+      <c r="X5">
+        <v>7.5</v>
+      </c>
+      <c r="Y5">
+        <v>19.5</v>
+      </c>
+      <c r="Z5">
+        <v>20</v>
+      </c>
+      <c r="AA5">
+        <v>2.6</v>
+      </c>
+      <c r="AB5">
+        <v>2.6</v>
+      </c>
+      <c r="AC5">
+        <v>4.5</v>
+      </c>
+      <c r="AD5">
+        <v>4.5</v>
+      </c>
+      <c r="AE5">
+        <v>1.9</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>1.6</v>
+      </c>
+      <c r="AH5">
+        <v>1.6</v>
+      </c>
+      <c r="AI5">
+        <v>9.5</v>
+      </c>
+      <c r="AJ5">
+        <v>9.5</v>
+      </c>
+      <c r="AK5">
+        <v>5.3</v>
+      </c>
+      <c r="AL5">
+        <v>5.3</v>
+      </c>
+      <c r="AM5">
+        <v>3.3</v>
+      </c>
+      <c r="AN5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>90</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>0.05</v>
+      </c>
+      <c r="J6">
+        <v>0.05</v>
+      </c>
+      <c r="K6">
+        <v>4.5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M6" s="4">
+        <v>10.52</v>
+      </c>
+      <c r="N6" s="4">
+        <v>10.52</v>
+      </c>
+      <c r="O6" s="4">
+        <v>5.32</v>
+      </c>
+      <c r="P6" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>7</v>
+      </c>
+      <c r="R6" s="4">
+        <v>8</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="W6">
+        <v>3.8</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>15.5</v>
+      </c>
+      <c r="AB6">
+        <v>16.2</v>
+      </c>
+      <c r="AC6">
+        <v>0.9</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>4.3</v>
+      </c>
+      <c r="AF6">
+        <v>4.3</v>
+      </c>
+      <c r="AG6">
+        <v>1.9</v>
+      </c>
+      <c r="AH6">
+        <v>1.9</v>
+      </c>
+      <c r="AI6">
+        <v>0.5</v>
+      </c>
+      <c r="AJ6">
+        <v>0.5</v>
+      </c>
+      <c r="AK6">
+        <v>0.65</v>
+      </c>
+      <c r="AL6">
+        <v>0.65</v>
+      </c>
+      <c r="AM6">
+        <v>6.5</v>
+      </c>
+      <c r="AN6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>76</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>62</v>
+      </c>
+      <c r="L7">
+        <v>63</v>
+      </c>
+      <c r="M7">
+        <v>40</v>
+      </c>
+      <c r="N7">
+        <v>41</v>
+      </c>
+      <c r="O7">
+        <v>33</v>
+      </c>
+      <c r="P7">
+        <v>34</v>
+      </c>
+      <c r="Q7">
+        <v>33</v>
+      </c>
+      <c r="R7">
+        <v>34</v>
+      </c>
+      <c r="S7">
+        <v>32</v>
+      </c>
+      <c r="T7">
+        <v>33</v>
+      </c>
+      <c r="U7">
+        <v>20</v>
+      </c>
+      <c r="V7">
+        <v>20</v>
+      </c>
+      <c r="W7">
+        <v>55</v>
+      </c>
+      <c r="X7">
+        <v>57</v>
+      </c>
+      <c r="Y7">
+        <v>58</v>
+      </c>
+      <c r="Z7">
+        <v>59</v>
+      </c>
+      <c r="AA7">
+        <v>85</v>
+      </c>
+      <c r="AB7">
+        <v>86</v>
+      </c>
+      <c r="AC7">
+        <v>38</v>
+      </c>
+      <c r="AD7">
+        <v>39</v>
+      </c>
+      <c r="AE7">
+        <v>67</v>
+      </c>
+      <c r="AF7">
+        <v>68</v>
+      </c>
+      <c r="AG7">
+        <v>24</v>
+      </c>
+      <c r="AH7">
+        <v>25</v>
+      </c>
+      <c r="AI7">
+        <v>84</v>
+      </c>
+      <c r="AJ7">
+        <v>85</v>
+      </c>
+      <c r="AK7">
+        <v>80</v>
+      </c>
+      <c r="AL7">
+        <v>90</v>
+      </c>
+      <c r="AM7">
+        <v>80</v>
+      </c>
+      <c r="AN7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>60</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>34</v>
+      </c>
+      <c r="L8">
+        <v>34.5</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>15</v>
+      </c>
+      <c r="P8">
+        <v>17</v>
+      </c>
+      <c r="Q8">
+        <v>30</v>
+      </c>
+      <c r="R8">
+        <v>32</v>
+      </c>
+      <c r="S8">
+        <v>22</v>
+      </c>
+      <c r="T8">
+        <v>22</v>
+      </c>
+      <c r="U8">
+        <v>22</v>
+      </c>
+      <c r="V8">
+        <v>22</v>
+      </c>
+      <c r="W8">
+        <v>22</v>
+      </c>
+      <c r="X8">
+        <v>22</v>
+      </c>
+      <c r="Y8">
+        <v>6.5</v>
+      </c>
+      <c r="Z8">
+        <v>6.5</v>
+      </c>
+      <c r="AA8">
+        <v>6.5</v>
+      </c>
+      <c r="AB8">
+        <v>6.5</v>
+      </c>
+      <c r="AC8">
+        <v>75</v>
+      </c>
+      <c r="AD8">
+        <v>76</v>
+      </c>
+      <c r="AE8">
+        <v>80</v>
+      </c>
+      <c r="AF8">
+        <v>83</v>
+      </c>
+      <c r="AG8">
+        <v>9</v>
+      </c>
+      <c r="AH8">
+        <v>10</v>
+      </c>
+      <c r="AI8">
+        <v>1.2</v>
+      </c>
+      <c r="AJ8">
+        <v>1.3</v>
+      </c>
+      <c r="AK8">
+        <v>0.2</v>
+      </c>
+      <c r="AL8">
+        <v>0.2</v>
+      </c>
+      <c r="AM8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AN8">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>